--- a/outputs-r202/g__Eubacterium_H.xlsx
+++ b/outputs-r202/g__Eubacterium_H.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -601,6 +606,11 @@
           <t>s__Eubacterium_H sp002371335</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_H sp002371335(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -667,6 +677,11 @@
           <t>s__Eubacterium_H sp900318405</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_H sp900318405</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -733,6 +748,11 @@
           <t>s__Eubacterium_H sp900318755</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_H sp900318755</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -799,6 +819,11 @@
           <t>s__Eubacterium_H sp902783945</t>
         </is>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_H sp902783945</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -861,6 +886,11 @@
         <v>0.9753396538115229</v>
       </c>
       <c r="T6" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_H sp009696005</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>s__Eubacterium_H sp009696005</t>
         </is>
